--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\喬宇\Desktop\github\roll-check-app-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4F2D02-CD0D-4B4C-B9C9-F7561C85F896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62DB83F-64C4-9448-B885-0F9647198022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="149">
   <si>
     <t>Item_Name</t>
-  </si>
-  <si>
-    <t>0524A 一、鍵槽寬28mm -0.022,-0.074 二、鍵槽寬32mm -0.026,-0.088 | 0524A 一、鍵槽寬36mm -0.026,-0.088 二、鍵槽寬32mm -0.026,-0.088 | 0524A 鍵槽寬 28mm -0.022,-0.074 | 0524A 鍵槽寬 32mm -0.026,-0.088 | 0524A 鍵槽寬12mm +0.021,-0.021 | 0524A 鍵槽寬15.875mm ±0.1 | 0524A 鍵槽寬18mm -0.022, -0.074 | 0524A 鍵槽寬22mm -0.022, -0.074 | 0524A 鍵槽寬28.57mm ±0.3 | 0524A 鍵槽寬28.6mm ±0.025 | 0524A 鍵槽寬28mm +0,-0.052 | 0524A 鍵槽寬28mm -0.022,-0.074 | 0524A 鍵槽寬32mm +0,-0.062 | 0524A 鍵槽寬32mm -0.026,-0.088 | 0524A 鍵槽寬36mm +0,-0.062 | 0524A 鍵槽寬36mm -0.026,-0.088 | 0524A 鍵槽寬38.1mm +0, +0.038 | 0524A 鍵槽寬38.1mm +0,,+0.038 | 0524A 鍵槽寬38.1mm +0.04 | 0524A 鍵槽寬38mm +0.01,+0.07 | 0524A 鍵槽寬40mm +0,-0.062 | 0524A 鍵槽寬50mm -0.022,-0.074</t>
   </si>
   <si>
     <t>0118A 480°C ±10°C | 0118A 500°C ±10°C | 0118A 520°C ±10°C | 0118A 530°C ±10°C | 0118A 560°C ±10°C | 0118A 570°C ±10°C | 0118A 600°C ±10°C | 0118A 620°C ±10°C</t>
@@ -919,9 +916,9 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="94" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="C3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -937,806 +934,803 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
-        <v>109</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
         <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="B23" t="s">
-        <v>118</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
         <v>121</v>
       </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
         <v>31</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
         <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
         <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
         <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
         <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
         <v>70</v>
-      </c>
-      <c r="B67" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
         <v>72</v>
-      </c>
-      <c r="B68" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
         <v>74</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
